--- a/vignettes/fig_intro/pdat_group2.xlsx
+++ b/vignettes/fig_intro/pdat_group2.xlsx
@@ -27,9 +27,6 @@
     <t xml:space="preserve">Tanska</t>
   </si>
   <si>
-    <t xml:space="preserve">EU15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suomi</t>
   </si>
   <si>
@@ -42,13 +39,16 @@
     <t xml:space="preserve">Alankomaat</t>
   </si>
   <si>
+    <t xml:space="preserve">EU15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruotsi</t>
   </si>
   <si>
     <t xml:space="preserve">Britannia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norja</t>
   </si>
   <si>
     <t xml:space="preserve">Kauppa, kuljetus, hotelli ja ravintola</t>
@@ -432,34 +432,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>77.2974370469745</v>
+        <v>77.4500836434988</v>
       </c>
       <c r="D2" t="n">
         <v>90.5861774593565</v>
       </c>
       <c r="E2" t="n">
+        <v>83.6789938562797</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95.7785884321718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99.5542757800628</v>
+      </c>
+      <c r="H2" t="n">
+        <v>88.0253631700376</v>
+      </c>
+      <c r="I2" t="n">
         <v>90.4574570728002</v>
       </c>
-      <c r="F2" t="n">
-        <v>83.7515845796561</v>
-      </c>
-      <c r="G2" t="n">
-        <v>95.7785884321718</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100.688208732339</v>
-      </c>
-      <c r="I2" t="n">
-        <v>88.0253631700376</v>
-      </c>
       <c r="J2" t="n">
+        <v>73.9666461946696</v>
+      </c>
+      <c r="K2" t="n">
         <v>80.8745429464678</v>
       </c>
-      <c r="K2" t="n">
-        <v>84.0894943318442</v>
-      </c>
       <c r="L2" t="n">
-        <v>81.5079527155017</v>
+        <v>84.0885057243365</v>
       </c>
     </row>
     <row r="3">
@@ -470,34 +470,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>81.6998564496338</v>
+        <v>81.6449806497875</v>
       </c>
       <c r="D3" t="n">
         <v>91.214228948667</v>
       </c>
       <c r="E3" t="n">
+        <v>88.8281633662278</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.923278243238</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.580124470571</v>
+      </c>
+      <c r="H3" t="n">
+        <v>88.1261283500057</v>
+      </c>
+      <c r="I3" t="n">
         <v>91.9516150625763</v>
       </c>
-      <c r="F3" t="n">
-        <v>88.903761934189</v>
-      </c>
-      <c r="G3" t="n">
-        <v>96.923278243238</v>
-      </c>
-      <c r="H3" t="n">
-        <v>101.082709384047</v>
-      </c>
-      <c r="I3" t="n">
-        <v>88.1261283500057</v>
-      </c>
       <c r="J3" t="n">
+        <v>77.6376304247684</v>
+      </c>
+      <c r="K3" t="n">
         <v>83.0262005036871</v>
       </c>
-      <c r="K3" t="n">
-        <v>85.5168066448577</v>
-      </c>
       <c r="L3" t="n">
-        <v>84.192124014232</v>
+        <v>85.5157941406858</v>
       </c>
     </row>
     <row r="4">
@@ -508,34 +508,34 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>84.3644710634552</v>
+        <v>83.803256221197</v>
       </c>
       <c r="D4" t="n">
         <v>91.3645860518928</v>
       </c>
       <c r="E4" t="n">
+        <v>88.1243457564685</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.4495276147236</v>
+      </c>
+      <c r="G4" t="n">
+        <v>97.5316259199538</v>
+      </c>
+      <c r="H4" t="n">
+        <v>87.7997974258866</v>
+      </c>
+      <c r="I4" t="n">
         <v>92.8660421474755</v>
       </c>
-      <c r="F4" t="n">
-        <v>88.2214687640674</v>
-      </c>
-      <c r="G4" t="n">
-        <v>97.4495276147236</v>
-      </c>
-      <c r="H4" t="n">
-        <v>97.8765748804985</v>
-      </c>
-      <c r="I4" t="n">
-        <v>87.7997974258866</v>
-      </c>
       <c r="J4" t="n">
+        <v>80.3847067277336</v>
+      </c>
+      <c r="K4" t="n">
         <v>87.0105428101154</v>
       </c>
-      <c r="K4" t="n">
-        <v>88.7108984062227</v>
-      </c>
       <c r="L4" t="n">
-        <v>85.6968879499792</v>
+        <v>88.7098409859163</v>
       </c>
     </row>
     <row r="5">
@@ -546,34 +546,34 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>87.8525813742723</v>
+        <v>87.3629432239502</v>
       </c>
       <c r="D5" t="n">
         <v>92.1293199857711</v>
       </c>
       <c r="E5" t="n">
+        <v>89.74250971666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96.4769601748636</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96.39417554454</v>
+      </c>
+      <c r="H5" t="n">
+        <v>90.414203614714</v>
+      </c>
+      <c r="I5" t="n">
         <v>93.8437819056814</v>
       </c>
-      <c r="F5" t="n">
-        <v>89.8396566239627</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96.4769601748636</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96.2285454503858</v>
-      </c>
-      <c r="I5" t="n">
-        <v>90.414203614714</v>
-      </c>
       <c r="J5" t="n">
+        <v>84.3118192926531</v>
+      </c>
+      <c r="K5" t="n">
         <v>90.4343131062309</v>
       </c>
-      <c r="K5" t="n">
-        <v>90.4599743770859</v>
-      </c>
       <c r="L5" t="n">
-        <v>88.4463864873491</v>
+        <v>90.4588960518607</v>
       </c>
     </row>
     <row r="6">
@@ -584,34 +584,34 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>89.5150838904522</v>
+        <v>89.2067634472211</v>
       </c>
       <c r="D6" t="n">
         <v>93.0234760178315</v>
       </c>
       <c r="E6" t="n">
+        <v>93.2129295334444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>96.0946683157256</v>
+      </c>
+      <c r="G6" t="n">
+        <v>98.6992924881221</v>
+      </c>
+      <c r="H6" t="n">
+        <v>92.5134424717802</v>
+      </c>
+      <c r="I6" t="n">
         <v>95.2289704048023</v>
       </c>
-      <c r="F6" t="n">
-        <v>93.3157768037516</v>
-      </c>
-      <c r="G6" t="n">
-        <v>96.0946683157256</v>
-      </c>
-      <c r="H6" t="n">
-        <v>98.385066111982</v>
-      </c>
-      <c r="I6" t="n">
-        <v>92.5134424717802</v>
-      </c>
       <c r="J6" t="n">
+        <v>87.3977378379017</v>
+      </c>
+      <c r="K6" t="n">
         <v>95.1378159533792</v>
       </c>
-      <c r="K6" t="n">
-        <v>92.9311008028406</v>
-      </c>
       <c r="L6" t="n">
-        <v>90.1608388565532</v>
+        <v>92.9299930085223</v>
       </c>
     </row>
     <row r="7">
@@ -622,34 +622,34 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>92.3904612870719</v>
+        <v>92.6373954672964</v>
       </c>
       <c r="D7" t="n">
         <v>95.569242561124</v>
       </c>
       <c r="E7" t="n">
+        <v>95.6960872096018</v>
+      </c>
+      <c r="F7" t="n">
+        <v>96.9524912481077</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100.694078311433</v>
+      </c>
+      <c r="H7" t="n">
+        <v>96.3011139416956</v>
+      </c>
+      <c r="I7" t="n">
         <v>96.6546725551456</v>
       </c>
-      <c r="F7" t="n">
-        <v>95.8099294581132</v>
-      </c>
-      <c r="G7" t="n">
-        <v>96.9524912481077</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100.493801248046</v>
-      </c>
-      <c r="I7" t="n">
-        <v>96.3011139416956</v>
-      </c>
       <c r="J7" t="n">
+        <v>90.3727844135479</v>
+      </c>
+      <c r="K7" t="n">
         <v>98.0554618137663</v>
       </c>
-      <c r="K7" t="n">
-        <v>93.6635321097286</v>
-      </c>
       <c r="L7" t="n">
-        <v>92.4127704932136</v>
+        <v>93.6633667326847</v>
       </c>
     </row>
     <row r="8">
@@ -660,34 +660,34 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>98.982582473306</v>
+        <v>99.0582920224822</v>
       </c>
       <c r="D8" t="n">
         <v>99.2746039722415</v>
       </c>
       <c r="E8" t="n">
+        <v>94.4575490301278</v>
+      </c>
+      <c r="F8" t="n">
+        <v>99.5827245326052</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99.9064267883003</v>
+      </c>
+      <c r="H8" t="n">
+        <v>97.6063623532041</v>
+      </c>
+      <c r="I8" t="n">
         <v>98.8101348529098</v>
       </c>
-      <c r="F8" t="n">
-        <v>94.5968947595809</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.5827245326052</v>
-      </c>
-      <c r="H8" t="n">
-        <v>99.8815433761768</v>
-      </c>
-      <c r="I8" t="n">
-        <v>97.6063623532041</v>
-      </c>
       <c r="J8" t="n">
+        <v>98.0321509137561</v>
+      </c>
+      <c r="K8" t="n">
         <v>99.5939392685908</v>
       </c>
-      <c r="K8" t="n">
-        <v>96.9022449048665</v>
-      </c>
       <c r="L8" t="n">
-        <v>99.214013788608</v>
+        <v>96.9022323908042</v>
       </c>
     </row>
     <row r="9">
@@ -736,34 +736,34 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>99.9010268345499</v>
+        <v>100.036285846855</v>
       </c>
       <c r="D10" t="n">
         <v>92.125494305922</v>
       </c>
       <c r="E10" t="n">
+        <v>103.054864577966</v>
+      </c>
+      <c r="F10" t="n">
+        <v>99.4664504744161</v>
+      </c>
+      <c r="G10" t="n">
+        <v>99.6361692852061</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100.770674396088</v>
+      </c>
+      <c r="I10" t="n">
         <v>98.8129158787042</v>
       </c>
-      <c r="F10" t="n">
-        <v>102.916289087755</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99.4664504744161</v>
-      </c>
-      <c r="H10" t="n">
-        <v>99.0351881448736</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100.770674396088</v>
-      </c>
       <c r="J10" t="n">
+        <v>96.8161464232357</v>
+      </c>
+      <c r="K10" t="n">
         <v>97.5867143970768</v>
       </c>
-      <c r="K10" t="n">
-        <v>96.9744508110247</v>
-      </c>
       <c r="L10" t="n">
-        <v>96.0801366333901</v>
+        <v>96.9744467062099</v>
       </c>
     </row>
     <row r="11">
@@ -774,34 +774,34 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>96.3661089630698</v>
+        <v>95.884289732407</v>
       </c>
       <c r="D11" t="n">
         <v>91.0241051271873</v>
       </c>
       <c r="E11" t="n">
+        <v>94.9734771872315</v>
+      </c>
+      <c r="F11" t="n">
+        <v>95.8398748803817</v>
+      </c>
+      <c r="G11" t="n">
+        <v>97.176667198251</v>
+      </c>
+      <c r="H11" t="n">
+        <v>96.7487691451139</v>
+      </c>
+      <c r="I11" t="n">
         <v>95.8434614587791</v>
       </c>
-      <c r="F11" t="n">
-        <v>94.6455465008436</v>
-      </c>
-      <c r="G11" t="n">
-        <v>95.8398748803817</v>
-      </c>
-      <c r="H11" t="n">
-        <v>94.6782386045382</v>
-      </c>
-      <c r="I11" t="n">
-        <v>96.7487691451139</v>
-      </c>
       <c r="J11" t="n">
+        <v>96.4414438191487</v>
+      </c>
+      <c r="K11" t="n">
         <v>94.7682077674652</v>
       </c>
-      <c r="K11" t="n">
-        <v>93.0317116749607</v>
-      </c>
       <c r="L11" t="n">
-        <v>95.9930819129782</v>
+        <v>93.0346315461778</v>
       </c>
     </row>
     <row r="12">
@@ -812,34 +812,34 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>94.7314929471616</v>
+        <v>93.7908940804957</v>
       </c>
       <c r="D12" t="n">
         <v>97.4046021984009</v>
       </c>
       <c r="E12" t="n">
+        <v>100.13121231147</v>
+      </c>
+      <c r="F12" t="n">
+        <v>96.9781128963822</v>
+      </c>
+      <c r="G12" t="n">
+        <v>99.950569407716</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100.79096387213</v>
+      </c>
+      <c r="I12" t="n">
         <v>97.5369499212231</v>
       </c>
-      <c r="F12" t="n">
-        <v>99.4045246493403</v>
-      </c>
-      <c r="G12" t="n">
-        <v>96.9781128963822</v>
-      </c>
-      <c r="H12" t="n">
-        <v>97.1104516252465</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100.79096387213</v>
-      </c>
       <c r="J12" t="n">
+        <v>98.8083033364867</v>
+      </c>
+      <c r="K12" t="n">
         <v>95.693299912918</v>
       </c>
-      <c r="K12" t="n">
-        <v>95.2297400629848</v>
-      </c>
       <c r="L12" t="n">
-        <v>99.2448024641687</v>
+        <v>95.2430554530858</v>
       </c>
     </row>
     <row r="13">
@@ -850,34 +850,34 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4766673634526</v>
+        <v>96.8247216802311</v>
       </c>
       <c r="D13" t="n">
         <v>97.8118213476028</v>
       </c>
       <c r="E13" t="n">
+        <v>105.767403541552</v>
+      </c>
+      <c r="F13" t="n">
+        <v>99.172808556614</v>
+      </c>
+      <c r="G13" t="n">
+        <v>101.461659528757</v>
+      </c>
+      <c r="H13" t="n">
+        <v>103.830840137139</v>
+      </c>
+      <c r="I13" t="n">
         <v>99.3814452053193</v>
       </c>
-      <c r="F13" t="n">
-        <v>104.961443995546</v>
-      </c>
-      <c r="G13" t="n">
-        <v>99.172808556614</v>
-      </c>
-      <c r="H13" t="n">
-        <v>98.2037924141829</v>
-      </c>
-      <c r="I13" t="n">
-        <v>103.830840137139</v>
-      </c>
       <c r="J13" t="n">
+        <v>101.300908762633</v>
+      </c>
+      <c r="K13" t="n">
         <v>97.7897843489354</v>
       </c>
-      <c r="K13" t="n">
-        <v>96.5627655499282</v>
-      </c>
       <c r="L13" t="n">
-        <v>101.606915945492</v>
+        <v>96.5670295635443</v>
       </c>
     </row>
     <row r="14">
@@ -888,34 +888,34 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>101.060621078345</v>
+        <v>100.085809919769</v>
       </c>
       <c r="D14" t="n">
         <v>98.5526480802227</v>
       </c>
       <c r="E14" t="n">
+        <v>106.87770805668</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.1204622079374</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100.936086916751</v>
+      </c>
+      <c r="H14" t="n">
+        <v>104.557418391332</v>
+      </c>
+      <c r="I14" t="n">
         <v>100.044871525774</v>
       </c>
-      <c r="F14" t="n">
-        <v>106.052845910204</v>
-      </c>
-      <c r="G14" t="n">
-        <v>99.1204622079374</v>
-      </c>
-      <c r="H14" t="n">
-        <v>96.0257559062874</v>
-      </c>
-      <c r="I14" t="n">
-        <v>104.557418391332</v>
-      </c>
       <c r="J14" t="n">
+        <v>103.38876105046</v>
+      </c>
+      <c r="K14" t="n">
         <v>100.96605810255</v>
       </c>
-      <c r="K14" t="n">
-        <v>95.3147534332152</v>
-      </c>
       <c r="L14" t="n">
-        <v>103.759284104441</v>
+        <v>95.3114646463338</v>
       </c>
     </row>
     <row r="15">
@@ -926,34 +926,34 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>100.759932587559</v>
+        <v>99.988609501642</v>
       </c>
       <c r="D15" t="n">
         <v>101.208370331379</v>
       </c>
       <c r="E15" t="n">
+        <v>104.248600211804</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100.340226460807</v>
+      </c>
+      <c r="G15" t="n">
+        <v>102.409583984704</v>
+      </c>
+      <c r="H15" t="n">
+        <v>107.084785669269</v>
+      </c>
+      <c r="I15" t="n">
         <v>100.977512770013</v>
       </c>
-      <c r="F15" t="n">
-        <v>103.583576341465</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100.340226460807</v>
-      </c>
-      <c r="H15" t="n">
-        <v>97.2222066453381</v>
-      </c>
-      <c r="I15" t="n">
-        <v>107.084785669269</v>
-      </c>
       <c r="J15" t="n">
+        <v>106.418287313168</v>
+      </c>
+      <c r="K15" t="n">
         <v>104.046512765727</v>
       </c>
-      <c r="K15" t="n">
-        <v>96.1378118154061</v>
-      </c>
       <c r="L15" t="n">
-        <v>106.846264559595</v>
+        <v>96.1377717745256</v>
       </c>
     </row>
     <row r="16">
@@ -964,34 +964,34 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>102.049007520277</v>
+        <v>101.286584527522</v>
       </c>
       <c r="D16" t="n">
         <v>102.644403576811</v>
       </c>
       <c r="E16" t="n">
+        <v>102.286475617584</v>
+      </c>
+      <c r="F16" t="n">
+        <v>102.064529587244</v>
+      </c>
+      <c r="G16" t="n">
+        <v>104.605177867087</v>
+      </c>
+      <c r="H16" t="n">
+        <v>109.412299932407</v>
+      </c>
+      <c r="I16" t="n">
         <v>102.579822168588</v>
       </c>
-      <c r="F16" t="n">
-        <v>101.842367794665</v>
-      </c>
-      <c r="G16" t="n">
-        <v>102.064529587244</v>
-      </c>
-      <c r="H16" t="n">
-        <v>98.8956785790355</v>
-      </c>
-      <c r="I16" t="n">
-        <v>109.412299932407</v>
-      </c>
       <c r="J16" t="n">
+        <v>109.041612631336</v>
+      </c>
+      <c r="K16" t="n">
         <v>106.669007180195</v>
       </c>
-      <c r="K16" t="n">
-        <v>98.9825942943402</v>
-      </c>
       <c r="L16" t="n">
-        <v>108.868102874599</v>
+        <v>98.9800265397988</v>
       </c>
     </row>
     <row r="17">
@@ -1002,34 +1002,34 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>103.070617756001</v>
+        <v>102.687059845523</v>
       </c>
       <c r="D17" t="n">
         <v>104.536041239914</v>
       </c>
       <c r="E17" t="n">
+        <v>100.968714703824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>103.419444389956</v>
+      </c>
+      <c r="G17" t="n">
+        <v>106.178622976011</v>
+      </c>
+      <c r="H17" t="n">
+        <v>110.816847742766</v>
+      </c>
+      <c r="I17" t="n">
         <v>103.853595283182</v>
       </c>
-      <c r="F17" t="n">
-        <v>99.9417227382547</v>
-      </c>
-      <c r="G17" t="n">
-        <v>103.419444389956</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100.279807674847</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110.816847742766</v>
-      </c>
       <c r="J17" t="n">
+        <v>110.343369034531</v>
+      </c>
+      <c r="K17" t="n">
         <v>109.005219910871</v>
       </c>
-      <c r="K17" t="n">
-        <v>100.839623632739</v>
-      </c>
       <c r="L17" t="n">
-        <v>110.15109489651</v>
+        <v>100.815863562636</v>
       </c>
     </row>
     <row r="18">
@@ -1040,34 +1040,34 @@
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>103.543315992868</v>
+        <v>103.51025718727</v>
       </c>
       <c r="D18" t="n">
         <v>102.637333953019</v>
       </c>
       <c r="E18" t="n">
+        <v>101.643023794355</v>
+      </c>
+      <c r="F18" t="n">
+        <v>104.883356736733</v>
+      </c>
+      <c r="G18" t="n">
+        <v>106.823314078007</v>
+      </c>
+      <c r="H18" t="n">
+        <v>110.560682363361</v>
+      </c>
+      <c r="I18" t="n">
         <v>103.957963229866</v>
       </c>
-      <c r="F18" t="n">
-        <v>103.280536845893</v>
-      </c>
-      <c r="G18" t="n">
-        <v>103.561773925056</v>
-      </c>
-      <c r="H18" t="n">
-        <v>99.9940722343737</v>
-      </c>
-      <c r="I18" t="n">
-        <v>110.698114539989</v>
-      </c>
       <c r="J18" t="n">
+        <v>110.666895274858</v>
+      </c>
+      <c r="K18" t="n">
         <v>111.545190837187</v>
       </c>
-      <c r="K18" t="n">
-        <v>101.413246455618</v>
-      </c>
       <c r="L18" t="n">
-        <v>112.288417717733</v>
+        <v>101.229203341097</v>
       </c>
     </row>
     <row r="19">
@@ -1078,31 +1078,63 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>106.198559534471</v>
+        <v>105.766631313238</v>
       </c>
       <c r="D19" t="n">
         <v>103.644293959413</v>
       </c>
       <c r="E19" t="n">
+        <v>105.596870306001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>107.40312406393</v>
+      </c>
+      <c r="G19" t="n">
+        <v>108.179949029243</v>
+      </c>
+      <c r="H19" t="n">
+        <v>111.923807940295</v>
+      </c>
+      <c r="I19" t="n">
         <v>105.419838418844</v>
       </c>
-      <c r="F19" t="n">
-        <v>106.306506372875</v>
-      </c>
-      <c r="G19" t="n">
-        <v>105.930092988608</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100.548668442526</v>
-      </c>
-      <c r="I19" t="n">
-        <v>112.761313864921</v>
-      </c>
       <c r="J19" t="n">
+        <v>112.72283727515</v>
+      </c>
+      <c r="K19" t="n">
         <v>112.502850632576</v>
       </c>
-      <c r="K19"/>
       <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>106.341977510682</v>
+      </c>
+      <c r="D20" t="n">
+        <v>104.002598449301</v>
+      </c>
+      <c r="E20" t="n">
+        <v>107.49715814132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>108.238691852962</v>
+      </c>
+      <c r="G20" t="n">
+        <v>109.431850383224</v>
+      </c>
+      <c r="H20" t="n">
+        <v>112.590851069498</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,34 +1196,34 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>102.538136679712</v>
+        <v>102.999252375003</v>
       </c>
       <c r="D2" t="n">
         <v>90.6655331672363</v>
       </c>
       <c r="E2" t="n">
+        <v>92.8556280074591</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.7884995614531</v>
+      </c>
+      <c r="G2" t="n">
+        <v>103.928822202854</v>
+      </c>
+      <c r="H2" t="n">
+        <v>92.1509824894151</v>
+      </c>
+      <c r="I2" t="n">
         <v>94.2451475067047</v>
       </c>
-      <c r="F2" t="n">
-        <v>92.8855843188069</v>
-      </c>
-      <c r="G2" t="n">
-        <v>89.7884995614531</v>
-      </c>
-      <c r="H2" t="n">
-        <v>106.43942194066</v>
-      </c>
-      <c r="I2" t="n">
-        <v>92.1509824894151</v>
-      </c>
       <c r="J2" t="n">
+        <v>81.0247619335675</v>
+      </c>
+      <c r="K2" t="n">
         <v>75.6217374258004</v>
       </c>
-      <c r="K2" t="n">
-        <v>80.8146214867426</v>
-      </c>
       <c r="L2" t="n">
-        <v>83.4708843951023</v>
+        <v>80.8140291327414</v>
       </c>
     </row>
     <row r="3">
@@ -1202,34 +1234,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>104.950700810992</v>
+        <v>105.165577842671</v>
       </c>
       <c r="D3" t="n">
         <v>90.4702825091847</v>
       </c>
       <c r="E3" t="n">
+        <v>96.7901546905138</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88.6032746262965</v>
+      </c>
+      <c r="G3" t="n">
+        <v>106.666188744539</v>
+      </c>
+      <c r="H3" t="n">
+        <v>96.562044305921</v>
+      </c>
+      <c r="I3" t="n">
         <v>95.5300414486785</v>
       </c>
-      <c r="F3" t="n">
-        <v>96.8141998618974</v>
-      </c>
-      <c r="G3" t="n">
-        <v>88.6032746262965</v>
-      </c>
-      <c r="H3" t="n">
-        <v>108.729106368145</v>
-      </c>
-      <c r="I3" t="n">
-        <v>96.562044305921</v>
-      </c>
       <c r="J3" t="n">
+        <v>84.4391411352045</v>
+      </c>
+      <c r="K3" t="n">
         <v>76.8953532058705</v>
       </c>
-      <c r="K3" t="n">
-        <v>84.068367199856</v>
-      </c>
       <c r="L3" t="n">
-        <v>86.7400067390282</v>
+        <v>84.0677719534315</v>
       </c>
     </row>
     <row r="4">
@@ -1240,34 +1272,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>106.439704224128</v>
+        <v>106.828169123727</v>
       </c>
       <c r="D4" t="n">
         <v>90.3876288433836</v>
       </c>
       <c r="E4" t="n">
+        <v>96.0980324578366</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.3882410782041</v>
+      </c>
+      <c r="G4" t="n">
+        <v>107.69942555204</v>
+      </c>
+      <c r="H4" t="n">
+        <v>97.5038399307927</v>
+      </c>
+      <c r="I4" t="n">
         <v>96.5780557969021</v>
       </c>
-      <c r="F4" t="n">
-        <v>96.1286629399205</v>
-      </c>
-      <c r="G4" t="n">
-        <v>92.3882410782041</v>
-      </c>
-      <c r="H4" t="n">
-        <v>109.276380508362</v>
-      </c>
-      <c r="I4" t="n">
-        <v>97.5038399307927</v>
-      </c>
       <c r="J4" t="n">
+        <v>86.0817869671749</v>
+      </c>
+      <c r="K4" t="n">
         <v>79.7000670756929</v>
       </c>
-      <c r="K4" t="n">
-        <v>84.8867487117557</v>
-      </c>
       <c r="L4" t="n">
-        <v>88.1640849290936</v>
+        <v>84.8861373526994</v>
       </c>
     </row>
     <row r="5">
@@ -1278,34 +1310,34 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>103.124171934002</v>
+        <v>103.464696765706</v>
       </c>
       <c r="D5" t="n">
         <v>94.3720542033831</v>
       </c>
       <c r="E5" t="n">
+        <v>93.5478504916269</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94.7380619626008</v>
+      </c>
+      <c r="G5" t="n">
+        <v>107.092998136655</v>
+      </c>
+      <c r="H5" t="n">
+        <v>98.9717328984928</v>
+      </c>
+      <c r="I5" t="n">
         <v>97.2753759892615</v>
       </c>
-      <c r="F5" t="n">
-        <v>93.5776681235303</v>
-      </c>
-      <c r="G5" t="n">
-        <v>94.7380619626008</v>
-      </c>
-      <c r="H5" t="n">
-        <v>108.53192731768</v>
-      </c>
-      <c r="I5" t="n">
-        <v>98.9717328984928</v>
-      </c>
       <c r="J5" t="n">
+        <v>91.4621380839671</v>
+      </c>
+      <c r="K5" t="n">
         <v>84.7324958580522</v>
       </c>
-      <c r="K5" t="n">
-        <v>88.9543248087806</v>
-      </c>
       <c r="L5" t="n">
-        <v>93.2535611219964</v>
+        <v>88.9536417138022</v>
       </c>
     </row>
     <row r="6">
@@ -1316,34 +1348,34 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>101.878140931319</v>
+        <v>102.913551046939</v>
       </c>
       <c r="D6" t="n">
         <v>98.4388990912662</v>
       </c>
       <c r="E6" t="n">
+        <v>98.7715372382435</v>
+      </c>
+      <c r="F6" t="n">
+        <v>95.4703249608049</v>
+      </c>
+      <c r="G6" t="n">
+        <v>102.701224674746</v>
+      </c>
+      <c r="H6" t="n">
+        <v>97.4653604140565</v>
+      </c>
+      <c r="I6" t="n">
         <v>97.0823654355689</v>
       </c>
-      <c r="F6" t="n">
-        <v>98.8030198786721</v>
-      </c>
-      <c r="G6" t="n">
-        <v>95.4703249608049</v>
-      </c>
-      <c r="H6" t="n">
-        <v>104.087373707366</v>
-      </c>
-      <c r="I6" t="n">
-        <v>97.4653604140565</v>
-      </c>
       <c r="J6" t="n">
+        <v>97.2386492802076</v>
+      </c>
+      <c r="K6" t="n">
         <v>90.4280969235321</v>
       </c>
-      <c r="K6" t="n">
-        <v>90.8431270922407</v>
-      </c>
       <c r="L6" t="n">
-        <v>98.7321795607451</v>
+        <v>90.8424730947621</v>
       </c>
     </row>
     <row r="7">
@@ -1354,34 +1386,34 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>99.6557117183803</v>
+        <v>100.754538880786</v>
       </c>
       <c r="D7" t="n">
         <v>102.108630526944</v>
       </c>
       <c r="E7" t="n">
+        <v>96.5730312251265</v>
+      </c>
+      <c r="F7" t="n">
+        <v>96.0030753214134</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100.131989101705</v>
+      </c>
+      <c r="H7" t="n">
+        <v>99.4098461729254</v>
+      </c>
+      <c r="I7" t="n">
         <v>97.0647700540985</v>
       </c>
-      <c r="F7" t="n">
-        <v>96.6038131092823</v>
-      </c>
-      <c r="G7" t="n">
-        <v>96.0030753214134</v>
-      </c>
-      <c r="H7" t="n">
-        <v>101.332126277749</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99.4098461729254</v>
-      </c>
       <c r="J7" t="n">
+        <v>99.6783657266329</v>
+      </c>
+      <c r="K7" t="n">
         <v>94.1235997253653</v>
       </c>
-      <c r="K7" t="n">
-        <v>92.9458267338055</v>
-      </c>
       <c r="L7" t="n">
-        <v>100.743624424049</v>
+        <v>92.9458783586009</v>
       </c>
     </row>
     <row r="8">
@@ -1392,34 +1424,34 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>97.5596924136786</v>
+        <v>98.2435288164394</v>
       </c>
       <c r="D8" t="n">
         <v>100.884825524355</v>
       </c>
       <c r="E8" t="n">
+        <v>96.2376645714603</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100.413550456415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99.5396317393635</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100.163408082134</v>
+      </c>
+      <c r="I8" t="n">
         <v>97.8124640696207</v>
       </c>
-      <c r="F8" t="n">
-        <v>96.2683395601677</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100.413550456415</v>
-      </c>
-      <c r="H8" t="n">
-        <v>99.6930090918907</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100.163408082134</v>
-      </c>
       <c r="J8" t="n">
+        <v>98.6839573901921</v>
+      </c>
+      <c r="K8" t="n">
         <v>100.189222217987</v>
       </c>
-      <c r="K8" t="n">
-        <v>95.089988704738</v>
-      </c>
       <c r="L8" t="n">
-        <v>99.0887004034748</v>
+        <v>95.0900121628596</v>
       </c>
     </row>
     <row r="9">
@@ -1468,34 +1500,34 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>101.233837553242</v>
+        <v>100.553417510614</v>
       </c>
       <c r="D10" t="n">
         <v>104.150154858039</v>
       </c>
       <c r="E10" t="n">
+        <v>97.5722939067144</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100.894627671187</v>
+      </c>
+      <c r="G10" t="n">
+        <v>98.5408165254131</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100.988262656945</v>
+      </c>
+      <c r="I10" t="n">
         <v>100.069830546699</v>
       </c>
-      <c r="F10" t="n">
-        <v>97.5296995071764</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100.894627671187</v>
-      </c>
-      <c r="H10" t="n">
-        <v>98.0302653831155</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100.988262656945</v>
-      </c>
       <c r="J10" t="n">
+        <v>99.7437678265762</v>
+      </c>
+      <c r="K10" t="n">
         <v>97.3113574440531</v>
       </c>
-      <c r="K10" t="n">
-        <v>101.940803679258</v>
-      </c>
       <c r="L10" t="n">
-        <v>100.01447116039</v>
+        <v>101.941260146716</v>
       </c>
     </row>
     <row r="11">
@@ -1506,34 +1538,34 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>96.7278090061413</v>
+        <v>95.6963202283429</v>
       </c>
       <c r="D11" t="n">
         <v>104.442077665018</v>
       </c>
       <c r="E11" t="n">
+        <v>94.8882846709503</v>
+      </c>
+      <c r="F11" t="n">
+        <v>98.1830262683926</v>
+      </c>
+      <c r="G11" t="n">
+        <v>97.3783157968767</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100.657854070312</v>
+      </c>
+      <c r="I11" t="n">
         <v>97.7832462058997</v>
       </c>
-      <c r="F11" t="n">
-        <v>94.6183126011052</v>
-      </c>
-      <c r="G11" t="n">
-        <v>98.1830262683926</v>
-      </c>
-      <c r="H11" t="n">
-        <v>97.3339338309991</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100.657854070312</v>
-      </c>
       <c r="J11" t="n">
+        <v>102.42809698993</v>
+      </c>
+      <c r="K11" t="n">
         <v>98.0520077176375</v>
       </c>
-      <c r="K11" t="n">
-        <v>97.894109354615</v>
-      </c>
       <c r="L11" t="n">
-        <v>102.77710726796</v>
+        <v>97.8972094628968</v>
       </c>
     </row>
     <row r="12">
@@ -1544,34 +1576,34 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>96.2890038316363</v>
+        <v>94.4082056227921</v>
       </c>
       <c r="D12" t="n">
         <v>105.608881913671</v>
       </c>
       <c r="E12" t="n">
+        <v>96.2998616451801</v>
+      </c>
+      <c r="F12" t="n">
+        <v>99.2278690596335</v>
+      </c>
+      <c r="G12" t="n">
+        <v>97.164796729183</v>
+      </c>
+      <c r="H12" t="n">
+        <v>99.9950570325696</v>
+      </c>
+      <c r="I12" t="n">
         <v>99.1631417128541</v>
       </c>
-      <c r="F12" t="n">
-        <v>95.7925596163268</v>
-      </c>
-      <c r="G12" t="n">
-        <v>99.2278690596335</v>
-      </c>
-      <c r="H12" t="n">
-        <v>96.9278658439304</v>
-      </c>
-      <c r="I12" t="n">
-        <v>99.9950570325696</v>
-      </c>
       <c r="J12" t="n">
+        <v>104.756006526669</v>
+      </c>
+      <c r="K12" t="n">
         <v>100.437890183402</v>
       </c>
-      <c r="K12" t="n">
-        <v>103.363369314455</v>
-      </c>
       <c r="L12" t="n">
-        <v>105.11106067954</v>
+        <v>103.37795678602</v>
       </c>
     </row>
     <row r="13">
@@ -1582,34 +1614,34 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>97.2279949000279</v>
+        <v>96.1070419985058</v>
       </c>
       <c r="D13" t="n">
         <v>106.778066000049</v>
       </c>
       <c r="E13" t="n">
+        <v>98.1899046520713</v>
+      </c>
+      <c r="F13" t="n">
+        <v>99.291691295282</v>
+      </c>
+      <c r="G13" t="n">
+        <v>94.5879391624849</v>
+      </c>
+      <c r="H13" t="n">
+        <v>99.6866959302909</v>
+      </c>
+      <c r="I13" t="n">
         <v>99.6819358487168</v>
       </c>
-      <c r="F13" t="n">
-        <v>97.9553912941959</v>
-      </c>
-      <c r="G13" t="n">
-        <v>99.291691295282</v>
-      </c>
-      <c r="H13" t="n">
-        <v>94.4222466277779</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99.6866959302909</v>
-      </c>
       <c r="J13" t="n">
+        <v>103.975493949021</v>
+      </c>
+      <c r="K13" t="n">
         <v>102.744624408447</v>
       </c>
-      <c r="K13" t="n">
-        <v>103.900120746444</v>
-      </c>
       <c r="L13" t="n">
-        <v>103.956633197677</v>
+        <v>103.903923960884</v>
       </c>
     </row>
     <row r="14">
@@ -1620,34 +1652,34 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>98.9632630088317</v>
+        <v>97.6398637153707</v>
       </c>
       <c r="D14" t="n">
         <v>107.338445715588</v>
       </c>
       <c r="E14" t="n">
+        <v>100.55007693453</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.7840708215458</v>
+      </c>
+      <c r="G14" t="n">
+        <v>91.5393799470889</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100.016292120064</v>
+      </c>
+      <c r="I14" t="n">
         <v>100.198296228167</v>
       </c>
-      <c r="F14" t="n">
-        <v>100.320932513145</v>
-      </c>
-      <c r="G14" t="n">
-        <v>99.7840708215458</v>
-      </c>
-      <c r="H14" t="n">
-        <v>91.8540636087221</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.016292120064</v>
-      </c>
       <c r="J14" t="n">
+        <v>107.193056487516</v>
+      </c>
+      <c r="K14" t="n">
         <v>104.884302929025</v>
       </c>
-      <c r="K14" t="n">
-        <v>104.608397646277</v>
-      </c>
       <c r="L14" t="n">
-        <v>106.706199233911</v>
+        <v>104.606575020359</v>
       </c>
     </row>
     <row r="15">
@@ -1658,34 +1690,34 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>99.7838193799115</v>
+        <v>99.6902023872601</v>
       </c>
       <c r="D15" t="n">
         <v>111.620458124586</v>
       </c>
       <c r="E15" t="n">
+        <v>100.561599696337</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99.770106013457</v>
+      </c>
+      <c r="G15" t="n">
+        <v>92.8152794098852</v>
+      </c>
+      <c r="H15" t="n">
+        <v>99.6142994754627</v>
+      </c>
+      <c r="I15" t="n">
         <v>101.410412763921</v>
       </c>
-      <c r="F15" t="n">
-        <v>100.278037674223</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99.770106013457</v>
-      </c>
-      <c r="H15" t="n">
-        <v>92.6992802895138</v>
-      </c>
-      <c r="I15" t="n">
-        <v>99.6142994754627</v>
-      </c>
       <c r="J15" t="n">
+        <v>109.866717129368</v>
+      </c>
+      <c r="K15" t="n">
         <v>107.226643809434</v>
       </c>
-      <c r="K15" t="n">
-        <v>105.957034988031</v>
-      </c>
       <c r="L15" t="n">
-        <v>109.312020432226</v>
+        <v>105.952255127878</v>
       </c>
     </row>
     <row r="16">
@@ -1696,34 +1728,34 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>101.412504171327</v>
+        <v>101.227236194058</v>
       </c>
       <c r="D16" t="n">
         <v>112.476433330014</v>
       </c>
       <c r="E16" t="n">
+        <v>99.2358739923657</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100.744417298988</v>
+      </c>
+      <c r="G16" t="n">
+        <v>92.5075159980302</v>
+      </c>
+      <c r="H16" t="n">
+        <v>99.7913054518005</v>
+      </c>
+      <c r="I16" t="n">
         <v>102.171056882294</v>
       </c>
-      <c r="F16" t="n">
-        <v>99.3708650749752</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.744417298988</v>
-      </c>
-      <c r="H16" t="n">
-        <v>92.8282318844759</v>
-      </c>
-      <c r="I16" t="n">
-        <v>99.7913054518005</v>
-      </c>
       <c r="J16" t="n">
+        <v>109.297331537256</v>
+      </c>
+      <c r="K16" t="n">
         <v>110.674980922291</v>
       </c>
-      <c r="K16" t="n">
-        <v>105.685066481361</v>
-      </c>
       <c r="L16" t="n">
-        <v>108.796936332286</v>
+        <v>105.682839145698</v>
       </c>
     </row>
     <row r="17">
@@ -1734,34 +1766,34 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>101.349710063689</v>
+        <v>101.307525225042</v>
       </c>
       <c r="D17" t="n">
         <v>117.599001234736</v>
       </c>
       <c r="E17" t="n">
+        <v>100.652532818764</v>
+      </c>
+      <c r="F17" t="n">
+        <v>101.486881291995</v>
+      </c>
+      <c r="G17" t="n">
+        <v>91.2647824057687</v>
+      </c>
+      <c r="H17" t="n">
+        <v>99.5872163602206</v>
+      </c>
+      <c r="I17" t="n">
         <v>103.557907744945</v>
       </c>
-      <c r="F17" t="n">
-        <v>101.332319697743</v>
-      </c>
-      <c r="G17" t="n">
-        <v>101.486881291995</v>
-      </c>
-      <c r="H17" t="n">
-        <v>91.5409210472658</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99.5872163602206</v>
-      </c>
       <c r="J17" t="n">
+        <v>107.530495510738</v>
+      </c>
+      <c r="K17" t="n">
         <v>124.815849327501</v>
       </c>
-      <c r="K17" t="n">
-        <v>108.498886357752</v>
-      </c>
       <c r="L17" t="n">
-        <v>107.295453597599</v>
+        <v>108.488408931257</v>
       </c>
     </row>
     <row r="18">
@@ -1772,34 +1804,34 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>100.860289227858</v>
+        <v>101.141056276359</v>
       </c>
       <c r="D18" t="n">
         <v>118.136357192532</v>
       </c>
       <c r="E18" t="n">
+        <v>100.598969923522</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100.263434244536</v>
+      </c>
+      <c r="G18" t="n">
+        <v>91.3015528381542</v>
+      </c>
+      <c r="H18" t="n">
+        <v>99.0187310810272</v>
+      </c>
+      <c r="I18" t="n">
         <v>103.383278952696</v>
       </c>
-      <c r="F18" t="n">
-        <v>101.413570465088</v>
-      </c>
-      <c r="G18" t="n">
-        <v>101.550391931633</v>
-      </c>
-      <c r="H18" t="n">
-        <v>91.784385913064</v>
-      </c>
-      <c r="I18" t="n">
-        <v>99.1984489826171</v>
-      </c>
       <c r="J18" t="n">
+        <v>107.258058845924</v>
+      </c>
+      <c r="K18" t="n">
         <v>122.741146693747</v>
       </c>
-      <c r="K18" t="n">
-        <v>108.062579930981</v>
-      </c>
       <c r="L18" t="n">
-        <v>107.086504771588</v>
+        <v>108.034794606735</v>
       </c>
     </row>
     <row r="19">
@@ -1809,24 +1841,54 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="n">
+        <v>101.713570297288</v>
+      </c>
       <c r="D19" t="n">
         <v>120.695593242606</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="n">
+        <v>102.670961244028</v>
+      </c>
       <c r="F19" t="n">
-        <v>102.573052997559</v>
-      </c>
-      <c r="G19"/>
+        <v>102.160243687466</v>
+      </c>
+      <c r="G19" t="n">
+        <v>90.9393922226062</v>
+      </c>
       <c r="H19" t="n">
-        <v>91.4972423695298</v>
-      </c>
-      <c r="I19" t="n">
-        <v>99.5374060143513</v>
-      </c>
-      <c r="J19"/>
+        <v>99.3671858054611</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>109.646937933589</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" t="n">
+        <v>101.441644172929</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>87.0142151047833</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100.376558773119</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,8 +1897,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="ed7b0db1be0c04ce20b787c6777b9e1d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aaa347ddc4e112863a05b93d941e12cf" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="5d513dfb687de64cdbb5e96fee567c48">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3920e2ea3089842c3659c7b0d3181853" ns2:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1848,6 +1910,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1878,6 +1942,16 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1996,13 +2070,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D059C3-1988-48B2-92EE-7F010E1CF194}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA4451D9-D60B-4B40-8951-D39F80389125}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7CACCE1-7AAC-4DFD-97B3-8794F67E5894}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{809D8510-36F7-4B6A-867A-3CBED2BA5E7C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0765BD58-9EF6-4FB0-8F30-DB3BD3E7EB43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F4758B-7448-48E7-9A0B-238EB019E673}"/>
 </file>
--- a/vignettes/fig_intro/pdat_group2.xlsx
+++ b/vignettes/fig_intro/pdat_group2.xlsx
@@ -1897,8 +1897,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="5d513dfb687de64cdbb5e96fee567c48">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3920e2ea3089842c3659c7b0d3181853" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f5646ceb200daae7218f17100941a68c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33bd753129a1708488b63108d2e37b5d" ns2:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -2070,7 +2070,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA4451D9-D60B-4B40-8951-D39F80389125}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C13888-8162-4FA8-9802-79FB26E68E8F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
